--- a/测试日志/DFA7 迭代过程.xlsx
+++ b/测试日志/DFA7 迭代过程.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20337"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDZNH\source\repos\XidianAutomata\测试日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080CEC78-629B-4BF2-96FA-D43C3312752B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD0B64-E294-4DD8-A82C-40FA9D03244F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4E4D66A5-16C8-48D7-B151-F3D888E92183}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{4E4D66A5-16C8-48D7-B151-F3D888E92183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,22 @@
   </si>
   <si>
     <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,12 +228,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,6 +250,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,13 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB846E3-59CF-4793-B1A1-06377818A8D4}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,91 +600,91 @@
     <col min="3" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="6" width="4.625" customWidth="1"/>
     <col min="7" max="7" width="3.625" customWidth="1"/>
-    <col min="8" max="8" width="3.625" style="11" customWidth="1"/>
-    <col min="9" max="16" width="3.625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="7.25" style="7" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="7" customWidth="1"/>
+    <col min="9" max="16" width="3.625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="3.625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="4.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="5" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
         <v>3</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="8">
         <v>4</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="8">
         <v>5</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="8">
         <v>6</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="8">
         <v>7</v>
       </c>
-      <c r="P2" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="13">
+      <c r="P2" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="9">
         <v>9</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -682,40 +702,40 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="T3">
@@ -723,44 +743,44 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>2</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T4">
@@ -789,40 +809,40 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>2</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T5">
@@ -842,40 +862,40 @@
       <c r="G6">
         <v>8</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>2</v>
-      </c>
-      <c r="L6" s="12">
-        <v>2</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T6">
@@ -907,40 +927,40 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T7">
@@ -980,40 +1000,40 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12">
-        <v>2</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T9">
@@ -1053,40 +1073,40 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12">
-        <v>2</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T11">
@@ -1126,40 +1146,40 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12">
-        <v>2</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T13">
@@ -1199,40 +1219,40 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0</v>
-      </c>
-      <c r="P15" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T15">
@@ -1252,37 +1272,37 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>2</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12">
-        <v>0</v>
-      </c>
-      <c r="P16" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="s">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T16">
@@ -1317,40 +1337,40 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>2</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>2</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>2</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T17">
@@ -1393,40 +1413,40 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <v>2</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>2</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T19">
@@ -1449,40 +1469,40 @@
       <c r="G20">
         <v>-1</v>
       </c>
-      <c r="H20" s="11">
-        <v>2</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>2</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T20">
@@ -1517,40 +1537,40 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>2</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>2</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T21">
@@ -1573,40 +1593,40 @@
       <c r="G22">
         <v>-1</v>
       </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>2</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0</v>
-      </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T22">
@@ -1641,40 +1661,40 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>2</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0</v>
-      </c>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12">
-        <v>0</v>
-      </c>
-      <c r="P23" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="T23">
@@ -1700,40 +1720,40 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="11">
-        <v>2</v>
-      </c>
-      <c r="I24" s="12">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>2</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="2">
         <v>0</v>
       </c>
       <c r="T24">
@@ -1790,4 +1810,446 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCBFB73-9A7F-47A8-9287-DCF42450A062}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>